--- a/data/evaluation/evaluation_North_Summer_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Tomatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2232.678900000687</v>
+        <v>2217.261722056551</v>
       </c>
       <c r="C4" t="n">
-        <v>8020517.387348828</v>
+        <v>8022949.90437674</v>
       </c>
       <c r="D4" t="n">
-        <v>2832.051798140145</v>
+        <v>2832.481227541807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4569326999707962</v>
+        <v>0.4567679948288677</v>
       </c>
     </row>
     <row r="5">
